--- a/04_Evaluation/Group4Evalution.xlsx
+++ b/04_Evaluation/Group4Evalution.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Sync/Courses/Harvard/Information Management Systems/Electives_5/CSCIE171_Visualization/01Project/project-docs/04_Evaluation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="36040" yWindow="2980" windowWidth="30540" windowHeight="19700"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>Group 4 evaluation</t>
   </si>
@@ -131,27 +147,26 @@
   <si>
     <t>Alternatively, you could convert the visualization into a line chart showing each region as a separate line across the years, to highlight comparative trends. The male / female split can be highlighted by using a tooltip</t>
   </si>
+  <si>
+    <t>This is a good way to give the user an option to explore based on his or her interest.</t>
+  </si>
+  <si>
+    <t>I think this chart is a very focused on the dat based on the story being told. But an option for the user to pick other factors will help an explortory user</t>
+  </si>
+  <si>
+    <t>Linking the scatterpolt aand the world map on the right is a good way to help the user focus on points of interest.</t>
+  </si>
+  <si>
+    <t>Really like the page layout and how you plan to tell the story. Adding visual where needed is a great way to tell the story</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -210,59 +225,102 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff444444"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF444444"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -464,7 +522,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -483,7 +541,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -513,7 +571,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -539,7 +597,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -565,7 +623,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -591,7 +649,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -617,7 +675,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -643,7 +701,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -669,7 +727,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -695,7 +753,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -721,7 +779,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -734,9 +792,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -753,7 +817,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -772,7 +836,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -798,7 +862,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -824,7 +888,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -850,7 +914,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -876,7 +940,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -902,7 +966,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -928,7 +992,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -954,7 +1018,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -980,7 +1044,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1006,7 +1070,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1019,9 +1083,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1035,7 +1105,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1054,7 +1124,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1084,7 +1154,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1110,7 +1180,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1136,7 +1206,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1162,7 +1232,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1188,7 +1258,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1214,7 +1284,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1240,7 +1310,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1266,7 +1336,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1292,7 +1362,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1305,34 +1375,40 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7143" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7344" style="1" customWidth="1"/>
-    <col min="2" max="2" width="200.289" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7344" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7344" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7344" style="1" customWidth="1"/>
-    <col min="6" max="256" width="10.7344" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="200.33203125" style="1" customWidth="1"/>
+    <col min="3" max="256" width="10.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1340,22 +1416,22 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="4">
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3"/>
@@ -1363,354 +1439,398 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
-      <c r="A5" t="s" s="5">
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
-      <c r="A6" t="s" s="5">
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s" s="6">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
-      <c r="A7" t="s" s="5">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s" s="6">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
-      <c r="A8" t="s" s="5">
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B8" t="s" s="6">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
-      <c r="A9" t="s" s="5">
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B9" t="s" s="6">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
-      <c r="A10" t="s" s="5">
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B10" t="s" s="6">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="17" customHeight="1">
-      <c r="A11" t="s" s="5">
+    <row r="11" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B11" t="s" s="6">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="17" customHeight="1">
-      <c r="A12" t="s" s="5">
+    <row r="12" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B12" t="s" s="6">
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="17" customHeight="1">
-      <c r="A13" t="s" s="5">
+    <row r="13" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s" s="4">
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="17" customHeight="1">
-      <c r="A14" t="s" s="5">
+    <row r="14" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s" s="4">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" ht="17" customHeight="1">
-      <c r="A15" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s" s="5">
-        <v>15</v>
+    <row r="15" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" ht="17" customHeight="1">
-      <c r="A16" t="s" s="5">
+    <row r="16" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s" s="5">
-        <v>16</v>
+      <c r="B16" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" ht="17" customHeight="1">
-      <c r="A17" t="s" s="5">
+    <row r="17" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s" s="5">
-        <v>17</v>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" ht="17" customHeight="1">
-      <c r="A18" t="s" s="5">
+    <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s" s="5">
-        <v>18</v>
+      <c r="B18" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" ht="17" customHeight="1">
-      <c r="A19" t="s" s="5">
+    <row r="19" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B19" t="s" s="5">
-        <v>19</v>
+      <c r="B19" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" ht="17" customHeight="1">
-      <c r="A20" t="s" s="5">
+    <row r="20" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B20" t="s" s="5">
-        <v>20</v>
+      <c r="B20" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" ht="17" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+    <row r="21" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" ht="17" customHeight="1">
-      <c r="A22" t="s" s="4">
-        <v>21</v>
-      </c>
+    <row r="22" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" ht="17" customHeight="1">
-      <c r="A23" t="s" s="5">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s" s="4">
-        <v>22</v>
-      </c>
+    <row r="23" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" ht="17" customHeight="1">
-      <c r="A24" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s" s="4">
-        <v>23</v>
+    <row r="24" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" ht="17" customHeight="1">
-      <c r="A25" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s" s="4">
-        <v>24</v>
+    <row r="25" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" ht="17" customHeight="1">
-      <c r="A26" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s" s="4">
-        <v>25</v>
+    <row r="26" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" ht="17" customHeight="1">
-      <c r="A27" t="s" s="5">
+    <row r="27" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B27" t="s" s="4">
-        <v>26</v>
+      <c r="B27" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" ht="17" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4"/>
+    <row r="28" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" ht="17" customHeight="1">
-      <c r="A29" t="s" s="5">
-        <v>27</v>
-      </c>
-      <c r="B29" s="4"/>
+    <row r="29" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" ht="17" customHeight="1">
-      <c r="A30" t="s" s="5">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s" s="4">
-        <v>28</v>
-      </c>
+    <row r="30" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="4"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" ht="17" customHeight="1">
-      <c r="A31" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s" s="4">
-        <v>29</v>
-      </c>
+    <row r="31" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="4"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" ht="17" customHeight="1">
-      <c r="A32" s="5"/>
-      <c r="B32" s="4"/>
+    <row r="32" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" ht="17" customHeight="1">
-      <c r="A33" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="B33" s="4"/>
+    <row r="33" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" ht="17" customHeight="1">
-      <c r="A34" t="s" s="5">
-        <v>2</v>
-      </c>
-      <c r="B34" t="s" s="6">
-        <v>31</v>
+    <row r="34" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" ht="17" customHeight="1">
-      <c r="A35" t="s" s="5">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s" s="6">
-        <v>32</v>
-      </c>
+    <row r="35" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="4"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" ht="17" customHeight="1">
-      <c r="A36" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s" s="4">
-        <v>33</v>
-      </c>
+    <row r="36" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="4"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" ht="17" customHeight="1">
-      <c r="A37" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s" s="4">
-        <v>34</v>
+    <row r="37" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
+    <row r="38" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
